--- a/StructureDefinition-model-hiv-record.xlsx
+++ b/StructureDefinition-model-hiv-record.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$28</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="121">
   <si>
     <t>Path</t>
   </si>
@@ -356,11 +356,17 @@
     <t>HIVRecord.co-infections.treatment</t>
   </si>
   <si>
+    <t>The patient's treatments</t>
+  </si>
+  <si>
+    <t>HIVRecord.co-infections.treatment.treatmentType</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeableReference
 </t>
   </si>
   <si>
-    <t>The patient's treatments  - should perhaps be a different parent element?</t>
+    <t>The type of treatment</t>
   </si>
   <si>
     <t>HIVRecord.co-infections.treatment.period</t>
@@ -537,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2787,10 +2793,10 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2862,7 +2868,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2873,7 +2879,7 @@
         <v>38</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>37</v>
@@ -2885,10 +2891,10 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2940,13 +2946,13 @@
         <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>37</v>
@@ -2960,7 +2966,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -2983,7 +2989,7 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>114</v>
@@ -3038,7 +3044,7 @@
         <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>38</v>
@@ -3081,7 +3087,7 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>116</v>
@@ -3179,7 +3185,7 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>118</v>
@@ -3252,8 +3258,106 @@
         <v>37</v>
       </c>
     </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ27">
+  <autoFilter ref="A1:AJ28">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3263,7 +3367,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI26">
+  <conditionalFormatting sqref="A2:AI27">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-model-hiv-record.xlsx
+++ b/StructureDefinition-model-hiv-record.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$27</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="119">
   <si>
     <t>Path</t>
   </si>
@@ -356,17 +356,11 @@
     <t>HIVRecord.co-infections.treatment</t>
   </si>
   <si>
-    <t>The patient's treatments</t>
-  </si>
-  <si>
-    <t>HIVRecord.co-infections.treatment.treatmentType</t>
-  </si>
-  <si>
     <t xml:space="preserve">CodeableReference
 </t>
   </si>
   <si>
-    <t>The type of treatment</t>
+    <t>The patient's treatments  - should perhaps be a different parent element?</t>
   </si>
   <si>
     <t>HIVRecord.co-infections.treatment.period</t>
@@ -543,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2793,10 +2787,10 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2868,7 +2862,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2879,7 +2873,7 @@
         <v>38</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>37</v>
@@ -2891,10 +2885,10 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2946,13 +2940,13 @@
         <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>37</v>
@@ -2966,7 +2960,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -2989,7 +2983,7 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>114</v>
@@ -3044,7 +3038,7 @@
         <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>38</v>
@@ -3087,7 +3081,7 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>116</v>
@@ -3185,7 +3179,7 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>118</v>
@@ -3258,106 +3252,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" hidden="true">
-      <c r="A28" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ28">
+  <autoFilter ref="A1:AJ27">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3367,7 +3263,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI27">
+  <conditionalFormatting sqref="A2:AI26">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
